--- a/query_jd_price/商品目录及价格.xlsx
+++ b/query_jd_price/商品目录及价格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lee\github_repository\query_jd_price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E283386-7287-4310-ADFD-4A99C1154EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E2BAEB-47CD-4F61-91B1-A2CA27F225B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{AD2CC4BE-1BE4-4158-A2D6-64E728C1E13F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD2CC4BE-1BE4-4158-A2D6-64E728C1E13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,34 @@
   </si>
   <si>
     <t>查询日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华硕（ASUS）TUF GAMING B460M-PLUS重炮手主板+英特尔(Intel) i5-10400F 酷睿CPU处理器 板U套装套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100007308631.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100007753585.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华硕TUF GAMING B450M-PRO S重炮手主板+AMD 锐龙5 3600X CPU处理器 板U套装 CPU主板套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超频三散热器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>460M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +90,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -85,18 +122,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,13 +452,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB0A79F-542B-4759-A838-B382DCEE0483}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -433,8 +484,52 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0A5F4096-5588-4B5F-B5F6-E081D8745205}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{FFD52730-DD3B-41DF-BFF0-4BF5DA7D6D41}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>